--- a/MVN/GenValue/Value.xlsx
+++ b/MVN/GenValue/Value.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>CLASSNAME</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +462,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -485,86 +491,205 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>33</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>44</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>-22</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>56</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>96</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>36</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>999</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>-486</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>315</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>132</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>425</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>-486</v>
+      </c>
+      <c r="G9">
+        <v>315</v>
+      </c>
+      <c r="H9">
+        <v>132</v>
+      </c>
+      <c r="I9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>-789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-789</v>
+      </c>
+      <c r="F11">
+        <v>-486</v>
       </c>
     </row>
   </sheetData>
